--- a/BackTest/2019-10-28 BackTest TRX.xlsx
+++ b/BackTest/2019-10-28 BackTest TRX.xlsx
@@ -451,17 +451,13 @@
         <v>19.7333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>19.76666666666663</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>19.8333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>19.8333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>19.8333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>19.79999999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>19.79999999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>19.79999999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>19.8333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>19.89999999999996</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>19.89999999999996</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>20</v>
-      </c>
-      <c r="K13" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>19.89999999999996</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>19.8333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>19.79999999999997</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>19.8333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>19.89999999999996</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1399,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1434,22 +1256,14 @@
         <v>19.89999999999996</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1477,22 +1291,14 @@
         <v>19.89999999999996</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1520,22 +1326,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1563,22 +1361,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K28" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1606,22 +1396,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1649,22 +1431,14 @@
         <v>19.89999999999996</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1692,22 +1466,14 @@
         <v>19.89999999999996</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1735,22 +1501,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1778,22 +1536,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1821,22 +1571,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K34" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1864,22 +1606,14 @@
         <v>19.86666666666663</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K35" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1907,22 +1641,14 @@
         <v>19.79999999999997</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +1676,14 @@
         <v>19.7333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K37" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1993,22 +1711,14 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K38" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2036,22 +1746,14 @@
         <v>19.7333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K39" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2079,22 +1781,14 @@
         <v>19.76666666666663</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2122,22 +1816,14 @@
         <v>19.76666666666663</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K41" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2165,22 +1851,14 @@
         <v>19.7333333333333</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2208,22 +1886,14 @@
         <v>19.7333333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2251,22 +1921,14 @@
         <v>19.7333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2302,12 +1964,10 @@
       <c r="J45" t="n">
         <v>19.7</v>
       </c>
-      <c r="K45" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M45" t="n">
@@ -2345,9 +2005,7 @@
       <c r="J46" t="n">
         <v>19.8</v>
       </c>
-      <c r="K46" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2388,9 +2046,7 @@
       <c r="J47" t="n">
         <v>19.5</v>
       </c>
-      <c r="K47" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2429,11 +2085,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>19.8</v>
-      </c>
+        <v>19.5</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,11 +2126,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>19.8</v>
-      </c>
+        <v>19.6</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2517,9 +2169,7 @@
       <c r="J50" t="n">
         <v>19.5</v>
       </c>
-      <c r="K50" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,9 +2210,7 @@
       <c r="J51" t="n">
         <v>19.5</v>
       </c>
-      <c r="K51" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2603,9 +2251,7 @@
       <c r="J52" t="n">
         <v>19.4</v>
       </c>
-      <c r="K52" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2638,15 +2284,15 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J53" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2679,17 +2325,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,17 +2364,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2765,17 +2403,13 @@
         <v>19.5333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,17 +2442,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2851,17 +2481,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2894,17 +2520,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K59" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2937,17 +2559,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K60" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2980,17 +2598,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K61" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3023,17 +2637,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K62" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,9 +2684,7 @@
       <c r="J63" t="n">
         <v>19.5</v>
       </c>
-      <c r="K63" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3115,11 +2723,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>19.8</v>
-      </c>
+        <v>19.4</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3158,11 +2764,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K65" t="n">
-        <v>19.8</v>
-      </c>
+        <v>19.4</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3203,9 +2807,7 @@
       <c r="J66" t="n">
         <v>19.5</v>
       </c>
-      <c r="K66" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,17 +2840,13 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3281,17 +2879,13 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K68" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,17 +2918,13 @@
         <v>19.46666666666663</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K69" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3367,17 +2957,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K70" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,17 +2996,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,17 +3035,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,17 +3074,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,17 +3113,13 @@
         <v>19.53333333333329</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,17 +3152,13 @@
         <v>19.53333333333329</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K75" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3625,17 +3191,13 @@
         <v>19.53333333333329</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K76" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3668,17 +3230,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K77" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3711,17 +3269,13 @@
         <v>19.46666666666663</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K78" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3754,17 +3308,13 @@
         <v>19.43333333333329</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K79" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,17 +3347,13 @@
         <v>19.43333333333329</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K80" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3840,17 +3386,13 @@
         <v>19.43333333333329</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K81" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,17 +3425,13 @@
         <v>19.46666666666662</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K82" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,17 +3464,13 @@
         <v>19.43333333333329</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K83" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3969,17 +3503,13 @@
         <v>19.46666666666662</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K84" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,17 +3542,13 @@
         <v>19.46666666666662</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K85" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4055,17 +3581,13 @@
         <v>19.49999999999995</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K86" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,17 +3620,13 @@
         <v>19.46666666666662</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K87" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4141,17 +3659,13 @@
         <v>19.43333333333329</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K88" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4184,17 +3698,13 @@
         <v>19.39999999999996</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4227,17 +3737,13 @@
         <v>19.39999999999996</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K90" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,17 +3776,13 @@
         <v>19.36666666666663</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="K91" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4313,17 +3815,13 @@
         <v>19.36666666666663</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K92" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4356,17 +3854,13 @@
         <v>19.36666666666663</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K93" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4399,17 +3893,13 @@
         <v>19.39999999999996</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K94" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4442,17 +3932,13 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K95" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,17 +3971,13 @@
         <v>19.46666666666663</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K96" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,17 +4010,13 @@
         <v>19.46666666666663</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K97" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4571,17 +4049,13 @@
         <v>19.46666666666663</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4614,17 +4088,13 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K99" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4657,17 +4127,13 @@
         <v>19.46666666666663</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K100" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,17 +4166,13 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K101" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,17 +4205,13 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,17 +4244,13 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,17 +4283,13 @@
         <v>19.4333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,17 +4322,13 @@
         <v>19.46666666666663</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4915,17 +4361,13 @@
         <v>19.46666666666663</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K106" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4958,17 +4400,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K107" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5001,17 +4439,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K108" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,17 +4478,13 @@
         <v>19.49999999999996</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="K109" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5087,17 +4517,13 @@
         <v>19.53333333333329</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K110" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5130,17 +4556,13 @@
         <v>19.59999999999996</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K111" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5173,17 +4595,13 @@
         <v>19.66666666666663</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K112" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5216,17 +4634,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K113" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5259,17 +4673,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K114" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,17 +4712,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K115" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,17 +4751,13 @@
         <v>19.66666666666663</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K116" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5388,17 +4790,13 @@
         <v>19.63333333333329</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K117" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5431,17 +4829,13 @@
         <v>19.59999999999996</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K118" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,17 +4868,13 @@
         <v>19.59999999999996</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K119" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,17 +4907,13 @@
         <v>19.63333333333329</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K120" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,17 +4946,13 @@
         <v>19.66666666666663</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K121" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,17 +4985,13 @@
         <v>19.66666666666663</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K122" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,17 +5024,13 @@
         <v>19.63333333333329</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="K123" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,17 +5063,13 @@
         <v>19.63333333333329</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K124" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5732,17 +5102,13 @@
         <v>19.66666666666663</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K125" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,17 +5141,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K126" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5818,17 +5180,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K127" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5861,17 +5219,13 @@
         <v>19.66666666666663</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K128" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5904,17 +5258,13 @@
         <v>19.66666666666663</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K129" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,17 +5297,13 @@
         <v>19.66666666666663</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5990,17 +5336,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K131" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6033,17 +5375,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K132" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,17 +5414,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K133" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6119,17 +5453,13 @@
         <v>19.69999999999996</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="K134" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6162,17 +5492,13 @@
         <v>19.73333333333329</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K135" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,17 +5531,13 @@
         <v>19.76666666666662</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K136" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,17 +5570,13 @@
         <v>19.83333333333328</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="K137" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6291,17 +5609,13 @@
         <v>19.86666666666661</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K138" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,17 +5648,13 @@
         <v>19.89999999999995</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K139" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6377,17 +5687,13 @@
         <v>19.89999999999994</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K140" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6420,17 +5726,13 @@
         <v>19.93333333333327</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="K141" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,17 +5765,13 @@
         <v>19.9666666666666</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>20</v>
-      </c>
-      <c r="K142" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6506,17 +5804,13 @@
         <v>19.99999999999994</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>20</v>
-      </c>
-      <c r="K143" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,17 +5843,13 @@
         <v>20.03333333333327</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>20</v>
-      </c>
-      <c r="K144" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6592,17 +5882,13 @@
         <v>20.09999999999994</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,17 +5921,13 @@
         <v>20.1666666666666</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="K146" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6684,9 +5966,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6725,9 +6005,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6766,9 +6044,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6807,9 +6083,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6848,9 +6122,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6889,9 +6161,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6930,9 +6200,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6971,9 +6239,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7012,9 +6278,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7053,9 +6317,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7094,9 +6356,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7135,9 +6395,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7176,9 +6434,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,9 +6473,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7258,9 +6512,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7299,9 +6551,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,9 +6590,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7381,9 +6629,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7422,9 +6668,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7463,9 +6707,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7504,9 +6746,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7545,9 +6785,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,9 +6824,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7627,9 +6863,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7668,9 +6902,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7709,9 +6941,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7750,9 +6980,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7791,9 +7019,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7832,9 +7058,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7873,9 +7097,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7914,9 +7136,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7955,9 +7175,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,9 +7214,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8037,9 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8078,9 +7292,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8119,9 +7331,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8160,9 +7370,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8201,9 +7409,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8242,9 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8283,9 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8324,9 +7526,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,9 +7565,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,9 +7604,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8447,9 +7643,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8488,9 +7682,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,9 +7721,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,9 +7760,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8611,9 +7799,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8652,9 +7838,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8693,9 +7877,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8734,9 +7916,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8775,9 +7955,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8816,9 +7994,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8857,9 +8033,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8898,9 +8072,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8939,9 +8111,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8980,9 +8150,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9021,9 +8189,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,9 +8228,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9103,9 +8267,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9144,9 +8306,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9185,9 +8345,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,9 +8384,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9264,20 +8420,16 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9308,14 +8460,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9349,14 +8495,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9390,14 +8530,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9431,14 +8565,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9472,14 +8600,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9513,14 +8635,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9554,14 +8670,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9595,14 +8705,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9636,14 +8740,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9677,14 +8775,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9718,14 +8810,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9759,14 +8845,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9800,14 +8880,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9841,14 +8915,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9882,14 +8950,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9923,14 +8985,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9964,14 +9020,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -10005,14 +9055,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -10046,14 +9090,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -10087,14 +9125,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -10128,14 +9160,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -10169,14 +9195,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -10210,14 +9230,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -10251,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10292,14 +9300,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10333,14 +9335,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10374,14 +9370,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10415,14 +9405,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10456,14 +9440,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10497,14 +9475,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10538,14 +9510,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10579,14 +9545,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10620,14 +9580,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10661,14 +9615,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10702,14 +9650,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10743,14 +9685,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10784,14 +9720,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10825,14 +9755,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10866,14 +9790,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10907,14 +9825,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10948,14 +9860,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10989,14 +9895,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -11030,14 +9930,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -11071,14 +9965,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -11112,14 +10000,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -11153,14 +10035,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -11194,14 +10070,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -11235,14 +10105,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11276,14 +10140,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11311,18 +10169,18 @@
         <v>21.33333333333329</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J260" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M260" t="n">
@@ -11352,15 +10210,15 @@
         <v>21.43333333333329</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J261" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11393,15 +10251,15 @@
         <v>21.56666666666663</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J262" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11434,15 +10292,15 @@
         <v>21.66666666666663</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J263" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11481,9 +10339,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11522,9 +10378,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11563,9 +10417,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11604,9 +10456,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11645,9 +10495,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11686,9 +10534,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11727,9 +10573,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11768,9 +10612,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11809,9 +10651,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11850,9 +10690,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11891,9 +10729,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11932,9 +10768,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11973,9 +10807,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12014,9 +10846,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12055,9 +10885,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12096,9 +10924,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12137,9 +10963,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12178,9 +11002,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12219,9 +11041,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12260,9 +11080,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12301,9 +11119,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12342,9 +11158,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12383,9 +11197,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12424,9 +11236,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12465,9 +11275,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12506,9 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12547,9 +11353,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12588,9 +11392,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12629,9 +11431,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12670,9 +11470,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12711,9 +11509,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12752,9 +11548,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12793,9 +11587,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,9 +11626,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12875,9 +11665,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12916,9 +11704,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12957,9 +11743,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12998,9 +11782,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13039,9 +11821,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13080,9 +11860,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13121,9 +11899,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,9 +11938,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13203,9 +11977,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13244,9 +12016,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13285,9 +12055,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13326,9 +12094,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13367,9 +12133,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13408,9 +12172,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13449,9 +12211,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13490,9 +12250,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13531,9 +12289,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13572,9 +12328,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13613,9 +12367,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13654,9 +12406,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13695,9 +12445,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13736,9 +12484,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13777,9 +12523,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13818,9 +12562,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13859,9 +12601,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13900,9 +12640,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13941,9 +12679,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13982,9 +12718,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14023,9 +12757,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14064,9 +12796,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14105,9 +12835,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14146,9 +12874,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14187,9 +12913,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14228,9 +12952,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14269,9 +12991,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14310,9 +13030,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14351,9 +13069,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14392,9 +13108,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14433,9 +13147,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14474,9 +13186,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14515,9 +13225,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14556,9 +13264,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14597,9 +13303,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14638,9 +13342,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14679,9 +13381,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14720,9 +13420,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14761,9 +13459,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14802,9 +13498,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14843,9 +13537,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14884,9 +13576,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14925,9 +13615,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14966,9 +13654,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15007,9 +13693,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15048,9 +13732,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15089,9 +13771,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15124,15 +13804,15 @@
         <v>21.86666666666661</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J353" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15165,15 +13845,15 @@
         <v>21.86666666666661</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J354" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15206,15 +13886,15 @@
         <v>21.89999999999995</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J355" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,15 +13927,15 @@
         <v>21.89999999999994</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J356" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15288,15 +13968,15 @@
         <v>21.9666666666666</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J357" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15335,9 +14015,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15376,9 +14054,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15417,9 +14093,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15458,9 +14132,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15499,9 +14171,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15540,9 +14210,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15581,9 +14249,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15616,15 +14282,15 @@
         <v>22.03333333333326</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J365" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15657,15 +14323,15 @@
         <v>22.03333333333326</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J366" t="n">
+        <v>22</v>
+      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15698,15 +14364,15 @@
         <v>21.9666666666666</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J367" t="n">
+        <v>22</v>
+      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15739,15 +14405,15 @@
         <v>21.89999999999993</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J368" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15780,15 +14446,15 @@
         <v>21.8666666666666</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J369" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15821,15 +14487,15 @@
         <v>21.8666666666666</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J370" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15862,15 +14528,15 @@
         <v>21.89999999999993</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J371" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15903,15 +14569,15 @@
         <v>21.93333333333327</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J372" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15944,15 +14610,15 @@
         <v>21.9666666666666</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J373" t="n">
+        <v>22</v>
+      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15985,15 +14651,15 @@
         <v>21.99999999999993</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J374" t="n">
+        <v>22</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16026,15 +14692,15 @@
         <v>22.03333333333326</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J375" t="n">
+        <v>22</v>
+      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16073,9 +14739,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16114,9 +14778,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16155,9 +14817,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16196,9 +14856,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16237,9 +14895,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16278,9 +14934,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16319,9 +14973,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16360,9 +15012,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16401,9 +15051,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16442,9 +15090,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16483,9 +15129,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16524,9 +15168,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16565,9 +15207,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16606,9 +15246,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16647,9 +15285,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16688,9 +15324,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16729,9 +15363,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16770,9 +15402,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16811,9 +15441,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16852,9 +15480,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16893,9 +15519,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16934,9 +15558,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16975,9 +15597,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17016,9 +15636,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17057,9 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17098,9 +15714,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17139,9 +15753,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17180,9 +15792,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17221,9 +15831,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17262,9 +15870,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17303,9 +15909,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17344,9 +15948,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17385,9 +15987,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17426,9 +16026,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17467,9 +16065,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17508,9 +16104,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17549,9 +16143,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17590,9 +16182,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17631,9 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17672,9 +16260,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17713,9 +16299,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17754,9 +16338,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17795,9 +16377,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17836,9 +16416,7 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17877,9 +16455,7 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17918,9 +16494,7 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17959,9 +16533,7 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18000,9 +16572,7 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18041,9 +16611,7 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18082,9 +16650,7 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18123,9 +16689,7 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18164,9 +16728,7 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18205,9 +16767,7 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18246,9 +16806,7 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18287,9 +16845,7 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18328,9 +16884,7 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18369,9 +16923,7 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18410,9 +16962,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18451,9 +17001,7 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18492,9 +17040,7 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18533,9 +17079,7 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18574,9 +17118,7 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18615,9 +17157,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18656,9 +17196,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18697,9 +17235,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18738,9 +17274,7 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18779,9 +17313,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18820,9 +17352,7 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18861,9 +17391,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18902,9 +17430,7 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18943,9 +17469,7 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18984,9 +17508,7 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19025,9 +17547,7 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19066,9 +17586,7 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19107,9 +17625,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19148,9 +17664,7 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19189,9 +17703,7 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19230,9 +17742,7 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19271,9 +17781,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19312,9 +17820,7 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19353,9 +17859,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19394,9 +17898,7 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19435,9 +17937,7 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19476,9 +17976,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19517,9 +18015,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19558,9 +18054,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19599,9 +18093,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19640,9 +18132,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19681,9 +18171,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19722,9 +18210,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19763,9 +18249,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19804,9 +18288,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19845,9 +18327,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19886,9 +18366,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19927,9 +18405,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19968,9 +18444,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20009,9 +18483,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20050,9 +18522,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20091,9 +18561,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20132,9 +18600,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20173,9 +18639,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20214,9 +18678,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20255,9 +18717,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20296,9 +18756,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20337,9 +18795,7 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20378,9 +18834,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20419,9 +18873,7 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20460,9 +18912,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20501,9 +18951,7 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20542,9 +18990,7 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20583,9 +19029,7 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20624,9 +19068,7 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20665,9 +19107,7 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20706,9 +19146,7 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20747,9 +19185,7 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20788,9 +19224,7 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20829,9 +19263,7 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20870,9 +19302,7 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20911,9 +19341,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20952,9 +19380,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20993,9 +19419,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21034,9 +19458,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21075,9 +19497,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21116,9 +19536,7 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21157,9 +19575,7 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21198,9 +19614,7 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21239,9 +19653,7 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21280,9 +19692,7 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21321,9 +19731,7 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21362,9 +19770,7 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21403,9 +19809,7 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21444,9 +19848,7 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21485,9 +19887,7 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21526,9 +19926,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21567,9 +19965,7 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21608,9 +20004,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21649,9 +20043,7 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21690,9 +20082,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21731,9 +20121,7 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21772,9 +20160,7 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21813,9 +20199,7 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21854,9 +20238,7 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21895,9 +20277,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21936,9 +20316,7 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21977,9 +20355,7 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22018,9 +20394,7 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22059,9 +20433,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22100,9 +20472,7 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22141,9 +20511,7 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22182,9 +20550,7 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22223,9 +20589,7 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22264,9 +20628,7 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22305,9 +20667,7 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22346,9 +20706,7 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22387,9 +20745,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22428,9 +20784,7 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22469,9 +20823,7 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22510,9 +20862,7 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22551,9 +20901,7 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22592,9 +20940,7 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22633,9 +20979,7 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22674,9 +21018,7 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22715,9 +21057,7 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22756,9 +21096,7 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22797,9 +21135,7 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22838,9 +21174,7 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22879,9 +21213,7 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22920,9 +21252,7 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22961,9 +21291,7 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23002,9 +21330,7 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23043,9 +21369,7 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23084,9 +21408,7 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23125,9 +21447,7 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23166,9 +21486,7 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23207,9 +21525,7 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23248,9 +21564,7 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23289,9 +21603,7 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23330,9 +21642,7 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23371,9 +21681,7 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23412,9 +21720,7 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23453,9 +21759,7 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23494,9 +21798,7 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23535,9 +21837,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23576,9 +21876,7 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23617,9 +21915,7 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23658,9 +21954,7 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23699,9 +21993,7 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23740,9 +22032,7 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23781,9 +22071,7 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23822,9 +22110,7 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23863,9 +22149,7 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23904,9 +22188,7 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23945,9 +22227,7 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23986,9 +22266,7 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24027,9 +22305,7 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24068,9 +22344,7 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24109,9 +22383,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24150,9 +22422,7 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24191,9 +22461,7 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24232,9 +22500,7 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24273,9 +22539,7 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24314,9 +22578,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24355,9 +22617,7 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24396,9 +22656,7 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24437,9 +22695,7 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24478,9 +22734,7 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24519,9 +22773,7 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24560,9 +22812,7 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24601,9 +22851,7 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24642,9 +22890,7 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24683,9 +22929,7 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24724,9 +22968,7 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24765,9 +23007,7 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24806,9 +23046,7 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24847,9 +23085,7 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24888,9 +23124,7 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24929,9 +23163,7 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24970,9 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25011,9 +23241,7 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25052,9 +23280,7 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25093,9 +23319,7 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25134,9 +23358,7 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25175,9 +23397,7 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25216,9 +23436,7 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25257,9 +23475,7 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25298,9 +23514,7 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25339,9 +23553,7 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25380,9 +23592,7 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25421,9 +23631,7 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25462,9 +23670,7 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25503,9 +23709,7 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25544,9 +23748,7 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25585,9 +23787,7 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25626,9 +23826,7 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25667,9 +23865,7 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25708,9 +23904,7 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25749,9 +23943,7 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25790,9 +23982,7 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25831,9 +24021,7 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25872,9 +24060,7 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25913,9 +24099,7 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25954,9 +24138,7 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25995,9 +24177,7 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26036,9 +24216,7 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26077,9 +24255,7 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26118,9 +24294,7 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26159,9 +24333,7 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26200,9 +24372,7 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26241,9 +24411,7 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26282,9 +24450,7 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26323,9 +24489,7 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26364,9 +24528,7 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26405,9 +24567,7 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26446,9 +24606,7 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26487,9 +24645,7 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26528,9 +24684,7 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26569,9 +24723,7 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26610,9 +24762,7 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26651,9 +24801,7 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26692,9 +24840,7 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26733,9 +24879,7 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26774,9 +24918,7 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26815,9 +24957,7 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26856,9 +24996,7 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26897,9 +25035,7 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26938,9 +25074,7 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26979,9 +25113,7 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27020,9 +25152,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27061,9 +25191,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27102,9 +25230,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27143,9 +25269,7 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27184,9 +25308,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27225,9 +25347,7 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27266,9 +25386,7 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27307,9 +25425,7 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27348,9 +25464,7 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27389,9 +25503,7 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27430,9 +25542,7 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27465,15 +25575,15 @@
         <v>21.99999999999996</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J654" t="n">
+        <v>22</v>
+      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27512,9 +25622,7 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27547,15 +25655,15 @@
         <v>21.96666666666663</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
       </c>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="J656" t="n">
+        <v>22</v>
+      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27594,9 +25702,7 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27635,9 +25741,7 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27676,9 +25780,7 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27717,9 +25819,7 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27758,9 +25858,7 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27799,9 +25897,7 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27840,9 +25936,7 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27881,9 +25975,7 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27922,9 +26014,7 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27963,9 +26053,7 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28004,9 +26092,7 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28045,9 +26131,7 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28086,9 +26170,7 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28127,9 +26209,7 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28168,9 +26248,7 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28209,9 +26287,7 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28250,9 +26326,7 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28291,9 +26365,7 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28332,9 +26404,7 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28373,9 +26443,7 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28414,9 +26482,7 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28455,9 +26521,7 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28496,9 +26560,7 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28537,9 +26599,7 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28578,9 +26638,7 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28619,9 +26677,7 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28660,9 +26716,7 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28701,9 +26755,7 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28742,9 +26794,7 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28783,9 +26833,7 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28824,9 +26872,7 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28865,9 +26911,7 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28906,9 +26950,7 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28947,9 +26989,7 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28988,9 +27028,7 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29029,9 +27067,7 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29070,17 +27106,13 @@
         <v>1</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M693" t="n">
-        <v>1.186919191919192</v>
-      </c>
+      <c r="M693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -29108,7 +27140,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
@@ -29143,7 +27175,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest TRX.xlsx
+++ b/BackTest/2019-10-28 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>827180.0034</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>827180.0034</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>19.1</v>
@@ -521,7 +521,7 @@
         <v>827180.0034</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>19.1</v>
@@ -562,7 +562,7 @@
         <v>827180.0034</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>19.1</v>
@@ -603,7 +603,7 @@
         <v>737456.4210000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>19.1</v>
@@ -640,7 +640,7 @@
         <v>737504.9626000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>19</v>
@@ -681,7 +681,7 @@
         <v>587897.3837000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>19.2</v>
@@ -722,7 +722,7 @@
         <v>587897.3837000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>19.1</v>
@@ -759,7 +759,7 @@
         <v>587897.3837000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>19.1</v>
@@ -800,7 +800,7 @@
         <v>587907.3837000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>19.1</v>
@@ -841,7 +841,7 @@
         <v>578142.1596000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>19.2</v>
@@ -878,7 +878,7 @@
         <v>776144.2238000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>19.1</v>
@@ -919,7 +919,7 @@
         <v>776144.2238000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>19.2</v>
@@ -960,7 +960,7 @@
         <v>776144.2238000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>19.2</v>
@@ -997,7 +997,7 @@
         <v>776144.2238000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>19.2</v>
@@ -1038,7 +1038,7 @@
         <v>776144.2238000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>19.2</v>
@@ -1079,7 +1079,7 @@
         <v>776144.2238000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>19.2</v>
@@ -1120,7 +1120,7 @@
         <v>776144.2238000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>19.2</v>
@@ -1161,7 +1161,7 @@
         <v>876144.2238000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>19.2</v>
@@ -1202,7 +1202,7 @@
         <v>876144.2238000002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>19.3</v>
@@ -1243,7 +1243,7 @@
         <v>739379.2589000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>19.3</v>
@@ -1284,7 +1284,7 @@
         <v>739379.2589000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>19.2</v>
@@ -1325,7 +1325,7 @@
         <v>739379.2589000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>19.2</v>
@@ -1366,7 +1366,7 @@
         <v>739379.2589000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>19.2</v>
@@ -1407,7 +1407,7 @@
         <v>745468.8908000002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>19.2</v>
@@ -1448,7 +1448,7 @@
         <v>757216.4171000002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>19.3</v>
@@ -1489,7 +1489,7 @@
         <v>757216.4171000002</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>19.4</v>
@@ -1530,7 +1530,7 @@
         <v>525560.4047000002</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>19.4</v>
@@ -1571,7 +1571,7 @@
         <v>525570.4047000002</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>19.3</v>
@@ -1612,7 +1612,7 @@
         <v>525414.9643000002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>19.4</v>
@@ -1653,7 +1653,7 @@
         <v>1081444.5809</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>19.3</v>
@@ -1694,7 +1694,7 @@
         <v>1081444.5809</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>19.4</v>
@@ -1735,7 +1735,7 @@
         <v>1081444.5809</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>19.4</v>
@@ -1776,7 +1776,7 @@
         <v>1081444.5809</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>19.4</v>
@@ -1817,7 +1817,7 @@
         <v>2083956.2311</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>19.4</v>
@@ -1858,7 +1858,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>19.5</v>
@@ -1899,7 +1899,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>19.6</v>
@@ -1940,7 +1940,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>19.6</v>
@@ -1981,7 +1981,7 @@
         <v>2111382.5116</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>19.6</v>
@@ -2022,7 +2022,7 @@
         <v>2093133.176</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>19.6</v>
@@ -2063,7 +2063,7 @@
         <v>2297309.6458</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>19.5</v>
@@ -2104,7 +2104,7 @@
         <v>2297309.6458</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>19.6</v>
@@ -2145,7 +2145,7 @@
         <v>3195444.697</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>19.6</v>
@@ -2186,11 +2186,9 @@
         <v>3195444.697</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>19.2</v>
       </c>
@@ -2227,11 +2225,9 @@
         <v>3195444.697</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>19.2</v>
       </c>
@@ -2268,11 +2264,9 @@
         <v>3195444.697</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>19.2</v>
       </c>
@@ -2309,11 +2303,9 @@
         <v>4696076.6646</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>19.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>19.2</v>
       </c>
@@ -2350,11 +2342,9 @@
         <v>5349284.5032</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>19.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>19.2</v>
       </c>
@@ -2391,11 +2381,9 @@
         <v>4587121.3676</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>19.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>19.2</v>
       </c>
@@ -2432,7 +2420,7 @@
         <v>4587121.3676</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>19.8</v>
@@ -2473,7 +2461,7 @@
         <v>4587121.3676</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>19.8</v>
@@ -2553,7 +2541,7 @@
         <v>4472752.076400001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>19.9</v>
@@ -2594,9 +2582,11 @@
         <v>4472752.076400001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J55" t="n">
         <v>19.2</v>
       </c>
@@ -2633,9 +2623,11 @@
         <v>4470492.0749</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J56" t="n">
         <v>19.2</v>
       </c>
@@ -2672,9 +2664,11 @@
         <v>4470492.0749</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J57" t="n">
         <v>19.2</v>
       </c>
@@ -2711,9 +2705,11 @@
         <v>4460492.0749</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J58" t="n">
         <v>19.2</v>
       </c>
@@ -2750,9 +2746,11 @@
         <v>4637287.5757</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>19.6</v>
+      </c>
       <c r="J59" t="n">
         <v>19.2</v>
       </c>
@@ -2789,9 +2787,11 @@
         <v>4637287.5757</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J60" t="n">
         <v>19.2</v>
       </c>
@@ -2828,9 +2828,11 @@
         <v>4841694.4371</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J61" t="n">
         <v>19.2</v>
       </c>
@@ -3023,9 +3025,11 @@
         <v>4566900.98989799</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J66" t="n">
         <v>19.2</v>
       </c>
@@ -3062,9 +3066,11 @@
         <v>4566900.98989799</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J67" t="n">
         <v>19.2</v>
       </c>
@@ -3101,9 +3107,11 @@
         <v>4566900.98989799</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J68" t="n">
         <v>19.2</v>
       </c>
@@ -3140,9 +3148,11 @@
         <v>4713425.61699799</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J69" t="n">
         <v>19.2</v>
       </c>
@@ -3335,9 +3345,11 @@
         <v>4625186.809697989</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>19.9</v>
+      </c>
       <c r="J74" t="n">
         <v>19.2</v>
       </c>
@@ -3374,9 +3386,11 @@
         <v>4625186.809697989</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J75" t="n">
         <v>19.2</v>
       </c>
@@ -3413,9 +3427,11 @@
         <v>4625186.809697989</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J76" t="n">
         <v>19.2</v>
       </c>
@@ -3452,9 +3468,11 @@
         <v>4646810.327197989</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J77" t="n">
         <v>19.2</v>
       </c>
@@ -3491,9 +3509,11 @@
         <v>4646810.327197989</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>19.9</v>
+      </c>
       <c r="J78" t="n">
         <v>19.2</v>
       </c>
@@ -3530,9 +3550,11 @@
         <v>4542871.417097989</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>19.9</v>
+      </c>
       <c r="J79" t="n">
         <v>19.2</v>
       </c>
@@ -3569,9 +3591,11 @@
         <v>5548020.121697989</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J80" t="n">
         <v>19.2</v>
       </c>
@@ -4271,9 +4295,11 @@
         <v>4796497.733413069</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J98" t="n">
         <v>19.2</v>
       </c>
@@ -4310,9 +4336,11 @@
         <v>4796497.733413069</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J99" t="n">
         <v>19.2</v>
       </c>
@@ -4349,9 +4377,11 @@
         <v>4788903.065413069</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J100" t="n">
         <v>19.2</v>
       </c>
@@ -4388,9 +4418,11 @@
         <v>4788903.065413069</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J101" t="n">
         <v>19.2</v>
       </c>
@@ -4427,9 +4459,11 @@
         <v>5155390.967215089</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J102" t="n">
         <v>19.2</v>
       </c>
@@ -4466,9 +4500,11 @@
         <v>5092596.467215089</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J103" t="n">
         <v>19.2</v>
       </c>
@@ -4505,9 +4541,11 @@
         <v>5112974.13801509</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J104" t="n">
         <v>19.2</v>
       </c>
@@ -4544,9 +4582,11 @@
         <v>4630385.04021509</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J105" t="n">
         <v>19.2</v>
       </c>
@@ -4583,9 +4623,11 @@
         <v>4630385.04021509</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J106" t="n">
         <v>19.2</v>
       </c>
@@ -4622,9 +4664,11 @@
         <v>4703602.54011509</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J107" t="n">
         <v>19.2</v>
       </c>
@@ -4661,9 +4705,11 @@
         <v>3884498.62901509</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>19.6</v>
+      </c>
       <c r="J108" t="n">
         <v>19.2</v>
       </c>
@@ -4700,9 +4746,11 @@
         <v>3884498.62901509</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J109" t="n">
         <v>19.2</v>
       </c>
@@ -4739,9 +4787,11 @@
         <v>-1550399.99488491</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J110" t="n">
         <v>19.2</v>
       </c>
@@ -4934,9 +4984,11 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J115" t="n">
         <v>19.2</v>
       </c>
@@ -4973,9 +5025,11 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J116" t="n">
         <v>19.2</v>
       </c>
@@ -5012,9 +5066,11 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J117" t="n">
         <v>19.2</v>
       </c>
@@ -5051,9 +5107,11 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J118" t="n">
         <v>19.2</v>
       </c>
@@ -5090,9 +5148,11 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J119" t="n">
         <v>19.2</v>
       </c>
@@ -5129,9 +5189,11 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J120" t="n">
         <v>19.2</v>
       </c>
@@ -5168,7 +5230,7 @@
         <v>-408248.99058696</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>19.5</v>
@@ -5209,9 +5271,11 @@
         <v>-459333.16178696</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J122" t="n">
         <v>19.2</v>
       </c>
@@ -5248,7 +5312,7 @@
         <v>-459333.16178696</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>19.4</v>
@@ -5289,7 +5353,7 @@
         <v>-459293.16178696</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>19.4</v>
@@ -5330,9 +5394,11 @@
         <v>-543672.86248696</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J125" t="n">
         <v>19.2</v>
       </c>
@@ -5369,9 +5435,11 @@
         <v>-543672.86248696</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J126" t="n">
         <v>19.2</v>
       </c>
@@ -5408,9 +5476,11 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J127" t="n">
         <v>19.2</v>
       </c>
@@ -5447,9 +5517,11 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J128" t="n">
         <v>19.2</v>
       </c>
@@ -5486,9 +5558,11 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J129" t="n">
         <v>19.2</v>
       </c>
@@ -5525,9 +5599,11 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J130" t="n">
         <v>19.2</v>
       </c>
@@ -5564,9 +5640,11 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J131" t="n">
         <v>19.2</v>
       </c>
@@ -5603,9 +5681,11 @@
         <v>-446135.33908696</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J132" t="n">
         <v>19.2</v>
       </c>
@@ -5642,9 +5722,11 @@
         <v>-446122.00578696</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J133" t="n">
         <v>19.2</v>
       </c>
@@ -5681,9 +5763,11 @@
         <v>-455114.29048696</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>19.6</v>
+      </c>
       <c r="J134" t="n">
         <v>19.2</v>
       </c>
@@ -5720,9 +5804,11 @@
         <v>-455114.29048696</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J135" t="n">
         <v>19.2</v>
       </c>
@@ -5759,9 +5845,11 @@
         <v>-455114.29048696</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J136" t="n">
         <v>19.2</v>
       </c>
@@ -5798,9 +5886,11 @@
         <v>-455127.62378696</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J137" t="n">
         <v>19.2</v>
       </c>
@@ -5837,9 +5927,11 @@
         <v>-455127.62378696</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J138" t="n">
         <v>19.2</v>
       </c>
@@ -5876,9 +5968,11 @@
         <v>-48157.74098696001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J139" t="n">
         <v>19.2</v>
       </c>
@@ -5915,9 +6009,11 @@
         <v>-58057.74098696001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J140" t="n">
         <v>19.2</v>
       </c>
@@ -5954,9 +6050,11 @@
         <v>41986.19411303999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J141" t="n">
         <v>19.2</v>
       </c>
@@ -5993,9 +6091,11 @@
         <v>-441690.22338696</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J142" t="n">
         <v>19.2</v>
       </c>
@@ -6032,9 +6132,11 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J143" t="n">
         <v>19.2</v>
       </c>
@@ -6071,9 +6173,11 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J144" t="n">
         <v>19.2</v>
       </c>
@@ -6110,9 +6214,11 @@
         <v>-441402.53998696</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J145" t="n">
         <v>19.2</v>
       </c>
@@ -6149,9 +6255,11 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J146" t="n">
         <v>19.2</v>
       </c>
@@ -6188,9 +6296,11 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J147" t="n">
         <v>19.2</v>
       </c>
@@ -6227,9 +6337,11 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J148" t="n">
         <v>19.2</v>
       </c>
@@ -6266,9 +6378,11 @@
         <v>-834556.5816869601</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J149" t="n">
         <v>19.2</v>
       </c>
@@ -6305,9 +6419,11 @@
         <v>-1915343.92148696</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J150" t="n">
         <v>19.2</v>
       </c>
@@ -6344,9 +6460,11 @@
         <v>-1623094.20648696</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>19.3</v>
+      </c>
       <c r="J151" t="n">
         <v>19.2</v>
       </c>
@@ -6383,9 +6501,11 @@
         <v>-1623094.20648696</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J152" t="n">
         <v>19.2</v>
       </c>
@@ -6422,9 +6542,11 @@
         <v>-1623094.20648696</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J153" t="n">
         <v>19.2</v>
       </c>
@@ -6461,9 +6583,11 @@
         <v>-1588689.73628696</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J154" t="n">
         <v>19.2</v>
       </c>
@@ -6500,9 +6624,11 @@
         <v>-1588689.73628696</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J155" t="n">
         <v>19.2</v>
       </c>
@@ -6539,9 +6665,11 @@
         <v>-1592862.72978696</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J156" t="n">
         <v>19.2</v>
       </c>
@@ -6578,9 +6706,11 @@
         <v>-1588373.33198696</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J157" t="n">
         <v>19.2</v>
       </c>
@@ -6617,9 +6747,11 @@
         <v>-1591283.56408696</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J158" t="n">
         <v>19.2</v>
       </c>
@@ -6656,7 +6788,7 @@
         <v>-1411771.41038696</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>19.4</v>
@@ -6775,9 +6907,11 @@
         <v>-1418570.64108696</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J162" t="n">
         <v>19.2</v>
       </c>
@@ -6814,9 +6948,11 @@
         <v>-1431738.33686131</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>19.5</v>
+      </c>
       <c r="J163" t="n">
         <v>19.2</v>
       </c>
@@ -6853,9 +6989,11 @@
         <v>-1398896.64456131</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>19.4</v>
+      </c>
       <c r="J164" t="n">
         <v>19.2</v>
       </c>
@@ -6892,7 +7030,7 @@
         <v>-1398896.64456131</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>19.5</v>
@@ -6933,7 +7071,7 @@
         <v>-1398896.64456131</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>19.5</v>
@@ -6974,7 +7112,7 @@
         <v>-1398896.64456131</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>19.5</v>
@@ -7015,7 +7153,7 @@
         <v>-1398896.64456131</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>19.5</v>
@@ -7056,7 +7194,7 @@
         <v>-1386696.64456131</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>19.5</v>
@@ -7097,7 +7235,7 @@
         <v>-290590.08795926</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>19.6</v>
@@ -7138,7 +7276,7 @@
         <v>-290590.08795926</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>19.7</v>
@@ -7179,7 +7317,7 @@
         <v>-290590.08795926</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>19.7</v>
@@ -7220,7 +7358,7 @@
         <v>-290590.08795926</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>19.7</v>
@@ -7261,9 +7399,11 @@
         <v>-290590.08795926</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J174" t="n">
         <v>19.2</v>
       </c>
@@ -7300,9 +7440,11 @@
         <v>-363624.75405926</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J175" t="n">
         <v>19.2</v>
       </c>
@@ -7339,7 +7481,7 @@
         <v>-363624.75405926</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>19.6</v>
@@ -7380,9 +7522,11 @@
         <v>-363624.75405926</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>19.6</v>
+      </c>
       <c r="J177" t="n">
         <v>19.2</v>
       </c>
@@ -7419,7 +7563,7 @@
         <v>-363624.75405926</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>19.6</v>
@@ -7460,9 +7604,11 @@
         <v>-255703.18045926</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>19.6</v>
+      </c>
       <c r="J179" t="n">
         <v>19.2</v>
       </c>
@@ -7499,9 +7645,11 @@
         <v>-255703.18045926</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J180" t="n">
         <v>19.2</v>
       </c>
@@ -7538,9 +7686,11 @@
         <v>-425952.28605926</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J181" t="n">
         <v>19.2</v>
       </c>
@@ -7577,9 +7727,11 @@
         <v>-425952.28605926</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>19.6</v>
+      </c>
       <c r="J182" t="n">
         <v>19.2</v>
       </c>
@@ -7616,9 +7768,11 @@
         <v>-396982.28605926</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>19.6</v>
+      </c>
       <c r="J183" t="n">
         <v>19.2</v>
       </c>
@@ -7655,9 +7809,11 @@
         <v>-396982.28605926</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J184" t="n">
         <v>19.2</v>
       </c>
@@ -7694,9 +7850,11 @@
         <v>-396982.28605926</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J185" t="n">
         <v>19.2</v>
       </c>
@@ -7733,9 +7891,11 @@
         <v>-396982.28605926</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J186" t="n">
         <v>19.2</v>
       </c>
@@ -7772,9 +7932,11 @@
         <v>-586500.92255926</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J187" t="n">
         <v>19.2</v>
       </c>
@@ -7811,9 +7973,11 @@
         <v>-538955.9377592601</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>19.6</v>
+      </c>
       <c r="J188" t="n">
         <v>19.2</v>
       </c>
@@ -7850,9 +8014,11 @@
         <v>-538955.9377592601</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J189" t="n">
         <v>19.2</v>
       </c>
@@ -7889,9 +8055,11 @@
         <v>-538955.9377592601</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J190" t="n">
         <v>19.2</v>
       </c>
@@ -7928,9 +8096,11 @@
         <v>-538955.9377592601</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J191" t="n">
         <v>19.2</v>
       </c>
@@ -7967,9 +8137,11 @@
         <v>-538955.9377592601</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J192" t="n">
         <v>19.2</v>
       </c>
@@ -8006,9 +8178,11 @@
         <v>-538955.9377592601</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J193" t="n">
         <v>19.2</v>
       </c>
@@ -8045,9 +8219,11 @@
         <v>-521844.5236582501</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>19.7</v>
+      </c>
       <c r="J194" t="n">
         <v>19.2</v>
       </c>
@@ -8084,9 +8260,11 @@
         <v>-521844.5236582501</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>19.8</v>
+      </c>
       <c r="J195" t="n">
         <v>19.2</v>
       </c>
@@ -8162,9 +8340,11 @@
         <v>-125978.50765825</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>19.9</v>
+      </c>
       <c r="J197" t="n">
         <v>19.2</v>
       </c>
@@ -8357,9 +8537,11 @@
         <v>701977.4526904899</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>20</v>
+      </c>
       <c r="J202" t="n">
         <v>19.2</v>
       </c>
@@ -8396,9 +8578,11 @@
         <v>923604.05689049</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>20</v>
+      </c>
       <c r="J203" t="n">
         <v>19.2</v>
       </c>
@@ -8435,9 +8619,11 @@
         <v>1173439.37839049</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>20.1</v>
+      </c>
       <c r="J204" t="n">
         <v>19.2</v>
       </c>
@@ -8474,9 +8660,11 @@
         <v>1173439.37839049</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>20.2</v>
+      </c>
       <c r="J205" t="n">
         <v>19.2</v>
       </c>
@@ -8513,9 +8701,11 @@
         <v>688836.5680904901</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>20.2</v>
+      </c>
       <c r="J206" t="n">
         <v>19.2</v>
       </c>
@@ -8552,9 +8742,11 @@
         <v>688836.5680904901</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>20.1</v>
+      </c>
       <c r="J207" t="n">
         <v>19.2</v>
       </c>
@@ -14597,7 +14789,7 @@
         <v>51790673.71802311</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
@@ -14675,7 +14867,7 @@
         <v>50831249.73093164</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
@@ -15377,7 +15569,7 @@
         <v>55425629.32193165</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
@@ -15416,7 +15608,7 @@
         <v>56579279.23252107</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
@@ -15455,7 +15647,7 @@
         <v>55138031.17147828</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
@@ -15494,7 +15686,7 @@
         <v>55138031.17147828</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
@@ -15533,7 +15725,7 @@
         <v>54034772.62357828</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
@@ -15572,7 +15764,7 @@
         <v>54034772.62357828</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
@@ -15611,7 +15803,7 @@
         <v>54034772.62357828</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
@@ -15650,7 +15842,7 @@
         <v>55281363.31467828</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
@@ -15689,7 +15881,7 @@
         <v>55281363.31467828</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
@@ -15728,7 +15920,7 @@
         <v>55281363.31467828</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
@@ -15767,7 +15959,7 @@
         <v>55258985.71837828</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
@@ -15806,7 +15998,7 @@
         <v>55407215.31957828</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
@@ -15845,7 +16037,7 @@
         <v>55005571.43917828</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
@@ -15884,7 +16076,7 @@
         <v>55005571.43917828</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
@@ -15923,7 +16115,7 @@
         <v>55374173.45627828</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
@@ -16040,7 +16232,7 @@
         <v>55374173.45627828</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
@@ -16352,7 +16544,7 @@
         <v>52490180.61264908</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
@@ -16391,7 +16583,7 @@
         <v>52733871.92554908</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
@@ -16430,7 +16622,7 @@
         <v>52733871.92554908</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
@@ -16469,7 +16661,7 @@
         <v>52438042.34214907</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
@@ -16508,7 +16700,7 @@
         <v>52430903.84214907</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
@@ -16547,7 +16739,7 @@
         <v>52431125.85128149</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
@@ -16586,7 +16778,7 @@
         <v>52431125.85128149</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
@@ -16625,7 +16817,7 @@
         <v>52431125.85128149</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
@@ -16664,7 +16856,7 @@
         <v>52431125.85128149</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
@@ -16703,7 +16895,7 @@
         <v>52807222.96658149</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
@@ -16742,7 +16934,7 @@
         <v>52807222.96658149</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
@@ -16781,7 +16973,7 @@
         <v>52803009.72518149</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
@@ -16820,7 +17012,7 @@
         <v>52803009.72518149</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
@@ -16859,7 +17051,7 @@
         <v>52846807.99018149</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
@@ -16898,7 +17090,7 @@
         <v>52698805.16608149</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
@@ -16937,7 +17129,7 @@
         <v>52698805.16608149</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
@@ -16976,7 +17168,7 @@
         <v>52781564.41498148</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
@@ -17015,7 +17207,7 @@
         <v>52237464.33028148</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
@@ -17054,7 +17246,7 @@
         <v>52237464.33028148</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
@@ -17093,7 +17285,7 @@
         <v>52126754.86392486</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
@@ -17132,7 +17324,7 @@
         <v>52098420.72392486</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
@@ -17171,7 +17363,7 @@
         <v>52098526.65992486</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
@@ -17288,7 +17480,7 @@
         <v>52471631.22426824</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
@@ -17327,7 +17519,7 @@
         <v>52471631.22426824</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
@@ -17366,7 +17558,7 @@
         <v>52471631.22426824</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
@@ -17405,7 +17597,7 @@
         <v>52841532.89066824</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
@@ -25673,7 +25865,7 @@
         <v>50574880.49957348</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
@@ -25681,15 +25873,13 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L646" t="n">
-        <v>1.156458333333334</v>
-      </c>
-      <c r="M646" t="n">
-        <v>1.010526315789474</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -25714,11 +25904,17 @@
         <v>50574880.49957348</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25747,11 +25943,17 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25780,11 +25982,17 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25813,11 +26021,17 @@
         <v>51418657.18097349</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25849,8 +26063,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25882,8 +26102,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25915,8 +26141,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25948,8 +26180,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25981,8 +26219,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -26014,8 +26258,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26044,11 +26294,17 @@
         <v>51416045.22634491</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26080,8 +26336,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26110,11 +26372,17 @@
         <v>52088646.68701635</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26146,8 +26414,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26176,11 +26450,17 @@
         <v>52384905.06852747</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26209,11 +26489,17 @@
         <v>52329996.39592747</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26242,11 +26528,17 @@
         <v>52708249.76922747</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26275,11 +26567,17 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -26308,11 +26606,17 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -26341,11 +26645,17 @@
         <v>52706503.47462747</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -26374,11 +26684,17 @@
         <v>51891230.66202746</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -26410,8 +26726,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -26443,8 +26765,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -26476,8 +26804,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -26509,8 +26843,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -26542,8 +26882,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -26575,8 +26921,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -26608,8 +26960,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -26641,8 +26999,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -26674,8 +27038,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -26707,8 +27077,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -26740,8 +27116,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -26773,8 +27155,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26806,8 +27194,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26839,8 +27233,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26872,8 +27272,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -26905,8 +27311,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -26938,8 +27350,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -26971,8 +27389,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -27004,8 +27428,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -27037,8 +27467,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -27070,8 +27506,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -27103,8 +27545,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -27136,8 +27584,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -27169,8 +27623,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -27202,8 +27662,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -27235,8 +27701,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -27268,8 +27740,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -27301,8 +27779,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -27334,8 +27818,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -27367,8 +27857,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -27400,8 +27896,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -27433,8 +27935,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -27466,8 +27974,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -27499,8 +28013,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -27532,8 +28052,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -27565,8 +28091,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -27598,8 +28130,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -27631,8 +28169,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -27664,8 +28208,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -27697,8 +28247,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -27730,8 +28286,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -27763,8 +28325,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -27796,8 +28364,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -27829,8 +28403,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -27862,8 +28442,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -27895,8 +28481,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -27928,8 +28520,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -27961,8 +28559,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -27994,8 +28598,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -28027,8 +28637,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -28060,8 +28676,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -28093,8 +28715,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -28126,8 +28754,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -28159,8 +28793,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -28192,8 +28832,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -28225,8 +28871,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -28258,8 +28910,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -28291,8 +28949,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -28324,8 +28988,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -28357,8 +29027,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -28390,8 +29066,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -28423,8 +29105,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -28456,8 +29144,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -28489,8 +29183,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -28522,8 +29222,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -28555,8 +29261,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -28588,8 +29300,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -28621,8 +29339,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -28654,8 +29378,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -28687,8 +29417,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -28720,8 +29456,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -28753,8 +29495,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -28786,8 +29534,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -28819,8 +29573,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -28852,8 +29612,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -28885,8 +29651,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -28918,8 +29690,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28951,8 +29729,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28984,8 +29768,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -29017,8 +29807,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -29050,8 +29846,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -29083,8 +29885,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -29113,11 +29921,17 @@
         <v>65259564.56711449</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -29146,11 +29960,17 @@
         <v>63606514.93241449</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -29179,11 +29999,17 @@
         <v>65325454.94497228</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -29212,11 +30038,17 @@
         <v>73620848.27911413</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -29245,11 +30077,17 @@
         <v>68048798.47281413</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -29278,11 +30116,17 @@
         <v>68048798.47281413</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -29311,11 +30155,17 @@
         <v>69630367.00277883</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -29344,11 +30194,17 @@
         <v>69497901.72907883</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -29377,11 +30233,17 @@
         <v>69497901.72907883</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -29410,11 +30272,17 @@
         <v>69154085.40107884</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -29446,8 +30314,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -29479,8 +30353,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -29512,8 +30392,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -29545,8 +30431,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -29578,8 +30470,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -29611,8 +30509,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -29644,8 +30548,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -29677,8 +30587,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -29710,8 +30626,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -29743,8 +30665,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -29776,8 +30704,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -29809,8 +30743,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -29842,8 +30782,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -29875,8 +30821,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -29908,8 +30860,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -29941,8 +30899,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -29974,8 +30938,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -30007,8 +30977,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -30040,8 +31016,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -30073,8 +31055,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -30106,8 +31094,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -30139,8 +31133,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -30172,8 +31172,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -30205,8 +31211,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -30238,8 +31250,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -30271,8 +31289,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -30301,15 +31325,23 @@
         <v>79709663.63118911</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L786" t="n">
-        <v>1</v>
-      </c>
-      <c r="M786" t="inlineStr"/>
+        <v>1.255416666666667</v>
+      </c>
+      <c r="M786" t="n">
+        <v>1.010526315789474</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
@@ -30367,7 +31399,7 @@
         <v>79315167.03908911</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -30400,7 +31432,7 @@
         <v>78303676.91335551</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -30433,7 +31465,7 @@
         <v>83632043.57205552</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -30466,7 +31498,7 @@
         <v>85052395.17512192</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -30499,7 +31531,7 @@
         <v>87905363.58942191</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -30532,7 +31564,7 @@
         <v>83295785.33142683</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -30565,7 +31597,7 @@
         <v>83295785.33142683</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -30598,7 +31630,7 @@
         <v>83295785.33142683</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -30631,7 +31663,7 @@
         <v>83295785.33142683</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -30664,7 +31696,7 @@
         <v>87890739.76352683</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -30697,7 +31729,7 @@
         <v>88164813.18772683</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30730,7 +31762,7 @@
         <v>89413297.57242683</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30763,7 +31795,7 @@
         <v>94428179.98272683</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30796,7 +31828,7 @@
         <v>97677607.85409655</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30829,7 +31861,7 @@
         <v>97677607.85409655</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30862,7 +31894,7 @@
         <v>96210601.90709655</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -30895,7 +31927,7 @@
         <v>91518425.52595359</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -30928,7 +31960,7 @@
         <v>91518425.52595359</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -30961,7 +31993,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -30994,7 +32026,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -31060,7 +32092,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -31093,7 +32125,7 @@
         <v>89980141.03175358</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -31126,7 +32158,7 @@
         <v>90417378.51218908</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -31159,7 +32191,7 @@
         <v>89884599.03210476</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -31192,7 +32224,7 @@
         <v>89884599.03210476</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -31225,7 +32257,7 @@
         <v>88732356.73030476</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -31258,7 +32290,7 @@
         <v>85689781.54894525</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -31291,7 +32323,7 @@
         <v>87955214.81824525</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -31324,7 +32356,7 @@
         <v>88736664.00904524</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -31357,7 +32389,7 @@
         <v>88271960.4321432</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -31390,7 +32422,7 @@
         <v>88271960.4321432</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -31423,7 +32455,7 @@
         <v>89852768.11714116</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -31456,7 +32488,7 @@
         <v>89402623.63174115</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -31489,7 +32521,7 @@
         <v>89402623.63174115</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -31522,7 +32554,7 @@
         <v>89661896.90514114</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -31555,7 +32587,7 @@
         <v>89548875.84824115</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -31588,7 +32620,7 @@
         <v>89919441.50954115</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -31621,7 +32653,7 @@
         <v>89660962.66184115</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -31687,7 +32719,7 @@
         <v>87584146.02582164</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -31753,7 +32785,7 @@
         <v>87927617.35382164</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -31819,7 +32851,7 @@
         <v>87126446.08562164</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -31885,7 +32917,7 @@
         <v>87354900.99093184</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -31918,7 +32950,7 @@
         <v>87354900.99093184</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -31951,7 +32983,7 @@
         <v>87831616.54053184</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -31984,7 +33016,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -32017,7 +33049,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -32050,7 +33082,7 @@
         <v>87253223.73733184</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -32083,7 +33115,7 @@
         <v>85808920.12753184</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -32116,7 +33148,7 @@
         <v>85808920.12753184</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -32149,7 +33181,7 @@
         <v>85614123.52473184</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -32182,7 +33214,7 @@
         <v>85614123.52473184</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -32215,7 +33247,7 @@
         <v>85667120.70453185</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -32248,7 +33280,7 @@
         <v>85506986.22423185</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -32281,7 +33313,7 @@
         <v>85506986.22423185</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -32347,7 +33379,7 @@
         <v>85948779.36093186</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -32380,7 +33412,7 @@
         <v>85948779.36093186</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -32413,7 +33445,7 @@
         <v>86649341.97063185</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -32446,7 +33478,7 @@
         <v>85796672.23873185</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -32479,7 +33511,7 @@
         <v>85175614.37943184</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -32512,7 +33544,7 @@
         <v>85175614.37943184</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -32545,7 +33577,7 @@
         <v>84486818.68143184</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -32578,7 +33610,7 @@
         <v>85397260.70713185</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -32611,7 +33643,7 @@
         <v>85397260.70713185</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -32644,7 +33676,7 @@
         <v>85204759.18053184</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -32677,7 +33709,7 @@
         <v>85204759.18053184</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -32710,7 +33742,7 @@
         <v>85204759.18053184</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -32743,7 +33775,7 @@
         <v>84080468.28283185</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -32776,7 +33808,7 @@
         <v>84080468.28283185</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -32809,7 +33841,7 @@
         <v>84060155.10373184</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -32842,7 +33874,7 @@
         <v>84060155.10373184</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -32875,7 +33907,7 @@
         <v>84836049.31103185</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -32908,7 +33940,7 @@
         <v>84836049.31103185</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -32941,7 +33973,7 @@
         <v>84836049.31103185</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -32974,7 +34006,7 @@
         <v>84633807.90293185</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -33007,7 +34039,7 @@
         <v>84788807.49343185</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -33040,7 +34072,7 @@
         <v>84623814.95233186</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -33073,7 +34105,7 @@
         <v>84665482.48093186</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -33106,7 +34138,7 @@
         <v>84554959.29323186</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -33139,7 +34171,7 @@
         <v>84810916.86733186</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -33172,7 +34204,7 @@
         <v>85525421.80911693</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -33205,7 +34237,7 @@
         <v>85525421.80911693</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -33238,7 +34270,7 @@
         <v>85525421.80911693</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -33271,7 +34303,7 @@
         <v>85526487.04571693</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -33304,7 +34336,7 @@
         <v>85526487.04571693</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -33337,7 +34369,7 @@
         <v>84992468.40521693</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -33370,7 +34402,7 @@
         <v>85967826.15201694</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -33436,7 +34468,7 @@
         <v>85953957.78251694</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -33535,7 +34567,7 @@
         <v>85926166.33151694</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -33667,7 +34699,7 @@
         <v>86271204.67549416</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -33700,7 +34732,7 @@
         <v>86472307.55439417</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -33733,7 +34765,7 @@
         <v>86472307.55439417</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -33766,7 +34798,7 @@
         <v>86472307.55439417</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -33799,7 +34831,7 @@
         <v>86472307.55439417</v>
       </c>
       <c r="H892" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -33832,7 +34864,7 @@
         <v>86441536.03119417</v>
       </c>
       <c r="H893" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -33865,7 +34897,7 @@
         <v>86441536.03119417</v>
       </c>
       <c r="H894" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -33898,7 +34930,7 @@
         <v>85735409.46746631</v>
       </c>
       <c r="H895" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -33931,7 +34963,7 @@
         <v>85735409.46746631</v>
       </c>
       <c r="H896" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -33964,7 +34996,7 @@
         <v>85902802.23846631</v>
       </c>
       <c r="H897" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -33997,7 +35029,7 @@
         <v>85873885.54916631</v>
       </c>
       <c r="H898" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -34030,7 +35062,7 @@
         <v>85889830.75116631</v>
       </c>
       <c r="H899" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -34063,7 +35095,7 @@
         <v>85622964.15926631</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -34096,7 +35128,7 @@
         <v>85622964.15926631</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -34129,7 +35161,7 @@
         <v>85088489.51236631</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -34162,7 +35194,7 @@
         <v>85088489.51236631</v>
       </c>
       <c r="H903" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -34195,7 +35227,7 @@
         <v>85088489.51236631</v>
       </c>
       <c r="H904" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -34228,7 +35260,7 @@
         <v>85089009.51236631</v>
       </c>
       <c r="H905" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -34261,7 +35293,7 @@
         <v>84928741.94746631</v>
       </c>
       <c r="H906" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -34294,7 +35326,7 @@
         <v>84928741.94746631</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -34327,7 +35359,7 @@
         <v>86816040.01566632</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -34360,7 +35392,7 @@
         <v>86675430.28016633</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -34393,7 +35425,7 @@
         <v>86675430.28016633</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -34426,7 +35458,7 @@
         <v>86759105.28016633</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -34459,7 +35491,7 @@
         <v>86759105.28016633</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -34492,7 +35524,7 @@
         <v>86754281.03776632</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -34525,7 +35557,7 @@
         <v>86886970.45916632</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -34558,7 +35590,7 @@
         <v>86886970.45916632</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -34624,7 +35656,7 @@
         <v>86886970.45916632</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -34657,7 +35689,7 @@
         <v>85624223.36716633</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -34690,7 +35722,7 @@
         <v>85624223.36716633</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -34723,7 +35755,7 @@
         <v>85624223.36716633</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34756,7 +35788,7 @@
         <v>85624223.36716633</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -34789,7 +35821,7 @@
         <v>85387133.36716633</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34822,7 +35854,7 @@
         <v>85387133.36716633</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34855,7 +35887,7 @@
         <v>85146901.69316633</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34888,7 +35920,7 @@
         <v>85146901.69316633</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34921,7 +35953,7 @@
         <v>86049456.33729966</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34954,7 +35986,7 @@
         <v>86049456.33729966</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34987,7 +36019,7 @@
         <v>86414333.48739965</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -35020,7 +36052,7 @@
         <v>86414333.48739965</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -35053,7 +36085,7 @@
         <v>86414333.48739965</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -35086,7 +36118,7 @@
         <v>86472184.72699966</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -35119,7 +36151,7 @@
         <v>86248254.22699966</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -35152,7 +36184,7 @@
         <v>86163898.65789965</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -35185,7 +36217,7 @@
         <v>86163898.65789965</v>
       </c>
       <c r="H934" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -35350,7 +36382,7 @@
         <v>81752489.80159965</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -35383,7 +36415,7 @@
         <v>81752489.80159965</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -35416,7 +36448,7 @@
         <v>82349105.25539964</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -35482,7 +36514,7 @@
         <v>82349105.25539964</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -35515,7 +36547,7 @@
         <v>82349105.25539964</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -35548,7 +36580,7 @@
         <v>82392245.63175194</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -35581,7 +36613,7 @@
         <v>81933862.31535193</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -35614,7 +36646,7 @@
         <v>81938063.99595194</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -35647,7 +36679,7 @@
         <v>81907025.67715193</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -35680,7 +36712,7 @@
         <v>81907025.67715193</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -35713,7 +36745,7 @@
         <v>82814723.34954858</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -35746,7 +36778,7 @@
         <v>82814723.34954858</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -35779,7 +36811,7 @@
         <v>82814723.34954858</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -35812,7 +36844,7 @@
         <v>82814723.34954858</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35845,7 +36877,7 @@
         <v>82841441.06084858</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -35878,7 +36910,7 @@
         <v>82841441.06084858</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35911,7 +36943,7 @@
         <v>83507091.67725988</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35944,7 +36976,7 @@
         <v>83448205.62095988</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35977,7 +37009,7 @@
         <v>83448205.62095988</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -36010,7 +37042,7 @@
         <v>84151863.94135988</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -36043,7 +37075,7 @@
         <v>83019964.82275988</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -36109,7 +37141,7 @@
         <v>82572333.38725989</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -36142,7 +37174,7 @@
         <v>82572333.38725989</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -36241,7 +37273,7 @@
         <v>81989071.27222796</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -36274,7 +37306,7 @@
         <v>81989071.27222796</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -36307,7 +37339,7 @@
         <v>82652863.06592795</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -36340,7 +37372,7 @@
         <v>82652863.06592795</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -36373,7 +37405,7 @@
         <v>82652863.06592795</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -36406,7 +37438,7 @@
         <v>82652863.06592795</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -36439,7 +37471,7 @@
         <v>82652863.06592795</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -36472,7 +37504,7 @@
         <v>82652863.06592795</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -36505,7 +37537,7 @@
         <v>81654277.87422796</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -36538,7 +37570,7 @@
         <v>80936170.80122796</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -36571,7 +37603,7 @@
         <v>79474576.42202796</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -36604,7 +37636,7 @@
         <v>79474576.42202796</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -36637,7 +37669,7 @@
         <v>79474576.42202796</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -36670,7 +37702,7 @@
         <v>79019480.96092796</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -36703,7 +37735,7 @@
         <v>79582865.89422797</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -36736,7 +37768,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -36769,7 +37801,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36802,7 +37834,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -36835,7 +37867,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -36868,7 +37900,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -36901,7 +37933,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -36934,7 +37966,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36967,7 +37999,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -37000,7 +38032,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -37033,7 +38065,7 @@
         <v>79960772.13142797</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -37165,7 +38197,7 @@
         <v>79806027.45838967</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -37429,7 +38461,7 @@
         <v>79629648.30168967</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -37495,7 +38527,7 @@
         <v>82132815.22875352</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -37528,7 +38560,7 @@
         <v>84050218.39925352</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -37561,7 +38593,7 @@
         <v>85188668.51845352</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -37594,7 +38626,7 @@
         <v>85188668.51845352</v>
       </c>
       <c r="H1007" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -37627,7 +38659,7 @@
         <v>85188668.51845352</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -37660,7 +38692,7 @@
         <v>84248542.06245352</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37693,7 +38725,7 @@
         <v>85411277.16925353</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37726,7 +38758,7 @@
         <v>85411277.16925353</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -37759,7 +38791,7 @@
         <v>84988802.25545353</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -37792,7 +38824,7 @@
         <v>84988802.25545353</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -37825,7 +38857,7 @@
         <v>84988802.25545353</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -37858,7 +38890,7 @@
         <v>84988802.25545353</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -37891,7 +38923,7 @@
         <v>84988802.25545353</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -37924,7 +38956,7 @@
         <v>84032931.92705353</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -37957,7 +38989,7 @@
         <v>84032931.92705353</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -37990,7 +39022,7 @@
         <v>84032931.92705353</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -38023,7 +39055,7 @@
         <v>84032931.92705353</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -38056,7 +39088,7 @@
         <v>84217678.43035352</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -38089,7 +39121,7 @@
         <v>84217678.43035352</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -38122,7 +39154,7 @@
         <v>84361814.13745353</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -38155,7 +39187,7 @@
         <v>84361814.13745353</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -38188,7 +39220,7 @@
         <v>83772562.59218687</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -38221,7 +39253,7 @@
         <v>83772562.59218687</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -38254,7 +39286,7 @@
         <v>83772562.59218687</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -38287,7 +39319,7 @@
         <v>83804630.66715352</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -38320,7 +39352,7 @@
         <v>83688854.19125353</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -38353,7 +39385,7 @@
         <v>83688854.19125353</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -38386,7 +39418,7 @@
         <v>83688854.19125353</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -38419,7 +39451,7 @@
         <v>83749252.58915353</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -38452,7 +39484,7 @@
         <v>83607859.39395353</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -38485,7 +39517,7 @@
         <v>84028330.76265353</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -38518,7 +39550,7 @@
         <v>84028330.76265353</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -38551,7 +39583,7 @@
         <v>84028330.76265353</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -38584,7 +39616,7 @@
         <v>84116075.94795352</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -38683,7 +39715,7 @@
         <v>85922580.71289615</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -38716,7 +39748,7 @@
         <v>85922580.71289615</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -38749,7 +39781,7 @@
         <v>85922580.71289615</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38782,7 +39814,7 @@
         <v>86472712.0189109</v>
       </c>
       <c r="H1043" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38815,7 +39847,7 @@
         <v>85930494.39872564</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38848,7 +39880,7 @@
         <v>85930494.39872564</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38881,7 +39913,7 @@
         <v>86418363.10692564</v>
       </c>
       <c r="H1046" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38914,7 +39946,7 @@
         <v>86418363.10692564</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -38980,7 +40012,7 @@
         <v>86418363.10692564</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -39013,7 +40045,7 @@
         <v>85774840.62562564</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -39046,7 +40078,7 @@
         <v>85774422.52062564</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -39079,7 +40111,7 @@
         <v>85068478.33842564</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -39112,7 +40144,7 @@
         <v>84783579.85862564</v>
       </c>
       <c r="H1053" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -39145,7 +40177,7 @@
         <v>84783579.85862564</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -39178,7 +40210,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -39211,7 +40243,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -39244,7 +40276,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1057" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -39277,7 +40309,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -39310,7 +40342,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -39343,7 +40375,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -39376,7 +40408,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -39409,7 +40441,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -39442,7 +40474,7 @@
         <v>85356052.04822564</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -39475,7 +40507,7 @@
         <v>85733562.16032565</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -39508,7 +40540,7 @@
         <v>85733562.16032565</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -39541,7 +40573,7 @@
         <v>85728989.66192564</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -39574,7 +40606,7 @@
         <v>85940237.32542564</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -39607,7 +40639,7 @@
         <v>85940237.32542564</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -39640,7 +40672,7 @@
         <v>86027240.38072564</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -39673,7 +40705,7 @@
         <v>85786793.15232563</v>
       </c>
       <c r="H1070" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -39706,7 +40738,7 @@
         <v>85786793.15232563</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -39739,7 +40771,7 @@
         <v>85786793.15232563</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -39772,7 +40804,7 @@
         <v>85766561.99532562</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -39805,7 +40837,7 @@
         <v>85766561.99532562</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -40168,7 +41200,7 @@
         <v>86518974.52818625</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -40201,7 +41233,7 @@
         <v>86397802.27188624</v>
       </c>
       <c r="H1086" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -40234,7 +41266,7 @@
         <v>86492891.38509381</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -40531,7 +41563,7 @@
         <v>86803519.368762</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -40597,7 +41629,7 @@
         <v>87322356.696962</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -40663,7 +41695,7 @@
         <v>85455285.716362</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -40828,7 +41860,7 @@
         <v>83599412.814262</v>
       </c>
       <c r="H1105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -40927,7 +41959,7 @@
         <v>83623484.40307555</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -40960,7 +41992,7 @@
         <v>83623484.40307555</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -40993,7 +42025,7 @@
         <v>83006314.01997554</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -41026,7 +42058,7 @@
         <v>82666809.59097554</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -41059,7 +42091,7 @@
         <v>82666809.59097554</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -41092,7 +42124,7 @@
         <v>83176433.87307554</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -41125,7 +42157,7 @@
         <v>83176433.87307554</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -41158,7 +42190,7 @@
         <v>83492761.39297554</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -41191,7 +42223,7 @@
         <v>83328392.72757554</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -41224,7 +42256,7 @@
         <v>83133611.25112662</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -41257,7 +42289,7 @@
         <v>83133611.25112662</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -41290,7 +42322,7 @@
         <v>83201188.83082661</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -41323,7 +42355,7 @@
         <v>83135821.27552661</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -41356,7 +42388,7 @@
         <v>82000229.57002661</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -41389,7 +42421,7 @@
         <v>84062504.36759901</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -41422,7 +42454,7 @@
         <v>84062504.36759901</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -41455,7 +42487,7 @@
         <v>84062504.36759901</v>
       </c>
       <c r="H1124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -41488,7 +42520,7 @@
         <v>84870468.42769901</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -41521,7 +42553,7 @@
         <v>83597675.08399646</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -41554,7 +42586,7 @@
         <v>83597675.08399646</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -41587,7 +42619,7 @@
         <v>83399251.39360462</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -42379,7 +43411,7 @@
         <v>83730664.03406593</v>
       </c>
       <c r="H1152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -42511,7 +43543,7 @@
         <v>83445617.04153088</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -42544,7 +43576,7 @@
         <v>83874794.74233088</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -42577,7 +43609,7 @@
         <v>83872794.74233088</v>
       </c>
       <c r="H1158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -42742,7 +43774,7 @@
         <v>83813001.64023088</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -42918,6 +43950,6 @@
       <c r="M1168" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>